--- a/data/trans_camb/P15_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_1-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>7,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,03</t>
+          <t>-1,68; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,48</t>
+          <t>-1,21; 4,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,22</t>
+          <t>3,66; 14,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,33</t>
+          <t>-1,72; 2,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,11</t>
+          <t>0,96; 7,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,74</t>
+          <t>2,17; 9,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,35</t>
+          <t>-0,99; 2,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,43</t>
+          <t>0,73; 5,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,35</t>
+          <t>4,15; 10,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>188,98%</t>
+          <t>108,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>918,43%</t>
+          <t>656,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>264,71%</t>
+          <t>428,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>508,6%</t>
+          <t>551,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>234,0%</t>
+          <t>257,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>677,44%</t>
+          <t>615,55%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,56; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>158,13; —</t>
+          <t>60,9; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 1568,9</t>
+          <t>8,27; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,89; 2414,43</t>
+          <t>43,82; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 436,96</t>
+          <t>-63,57; 567,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 1087,85</t>
+          <t>16,54; 1309,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>209,79; 2354,18</t>
+          <t>141,66; 2583,49</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>10,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,0</t>
+          <t>-3,15; 1,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,26</t>
+          <t>-1,31; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 18,45</t>
+          <t>5,3; 18,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,39</t>
+          <t>-2,9; 0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,06</t>
+          <t>-1,23; 4,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 13,32</t>
+          <t>6,45; 18,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,94</t>
+          <t>-2,1; 0,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,52</t>
+          <t>-0,56; 4,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,65</t>
+          <t>7,05; 15,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>399,81%</t>
+          <t>176,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1924,55%</t>
+          <t>1073,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-54,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>266,56%</t>
+          <t>117,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>986,0%</t>
+          <t>1039,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>311,89%</t>
+          <t>144,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1324,32%</t>
+          <t>1053,25%</t>
         </is>
       </c>
     </row>
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 1958,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>254,34; 4709,99</t>
+          <t>146,26; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 411,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 1515,02</t>
+          <t>-73,07; 1072,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>424,24; 6278,66</t>
+          <t>226,19; 4435,1</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,42</t>
+          <t>0,0; 20,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 17,88</t>
+          <t>0,0; 22,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 14,16</t>
+          <t>0,0; 19,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 17,16</t>
+          <t>3,29; 24,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 10,01</t>
+          <t>1,44; 15,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 14,14</t>
+          <t>3,04; 17,13</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>8,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,17</t>
+          <t>-1,2; 2,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,8</t>
+          <t>-0,05; 4,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,17</t>
+          <t>5,57; 13,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,9</t>
+          <t>-1,49; 1,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,67</t>
+          <t>1,1; 5,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,09</t>
+          <t>5,23; 11,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,79</t>
+          <t>-0,84; 1,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,62</t>
+          <t>1,09; 4,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,66</t>
+          <t>6,33; 11,38</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>328,6%</t>
+          <t>182,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1455,03%</t>
+          <t>888,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>-11,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>346,96%</t>
+          <t>346,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>813,54%</t>
+          <t>886,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>338,21%</t>
+          <t>264,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1062,82%</t>
+          <t>890,37%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,64; 559,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1866,95</t>
+          <t>-47,46; 1034,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>376,06; 6066,53</t>
+          <t>216,64; 3565,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 241,59</t>
+          <t>-88,36; 379,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,52; 1122,81</t>
+          <t>37,8; 1647,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>338,05; 2229,55</t>
+          <t>259,05; 3767,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,59; 203,23</t>
+          <t>-58,57; 232,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>115,18; 963,92</t>
+          <t>56,95; 749,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>536,68; 2542,16</t>
+          <t>367,53; 2200,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
